--- a/Downer/29267/res_F2LSIP ITP 11 - Concrete.xlsx
+++ b/Downer/29267/res_F2LSIP ITP 11 - Concrete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\28974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BAC45A-1AD8-4E3B-BE42-E18F71657A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E0A62-4901-4B43-B215-E3A5DBC33D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="990" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="1035" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Inspection: Key - R</t>
   </si>
   <si>
-    <t>11.2.1 - Pre-Pour Inspection _ NIB &amp; Dish Channel</t>
-  </si>
-  <si>
     <t>Acceptance Criteria - Proof Roll shows no undue movement in Subbase</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Inspection Point: Onsite Visual Inspection</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Construction/contraction joints to be constructed as per design and TS1 Specifications.</t>
-  </si>
-  <si>
     <t>Frequency - Post Construction</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>11.2.5 - Post Construction Inspection</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Finished concrete to be uniform and free of defects.</t>
-  </si>
-  <si>
     <t>11.3.1 - Control tests from concrete plant</t>
   </si>
   <si>
@@ -281,6 +272,21 @@
   </si>
   <si>
     <t xml:space="preserve">11.3.2 - Compressive strength Test </t>
+  </si>
+  <si>
+    <t>77404007-858c-45f3-9ca7-5124c893aeec</t>
+  </si>
+  <si>
+    <t>11.2.1 - Pre-Pour Inspection _ NIB, Kerb &amp; Dish Channel</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Construction/contraction joints to be constructed as per design and TS1 Specifications. Machine laid kerb and channel - Contraction Joints formed every 5m. Saw cutting within 24hours. Concrete Island Infills - Contraction Joints formed every 5m.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Finished concrete to be uniform and free of defects. Concrete Island Infill shall have a Class U5 Broomed Finish</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Test Results from IANZ registered Laboratory. Cast in Channels: &gt;20MPa Machine Laid Kerb and Channel: &gt;25MPa Concrete Island Infill: &gt;20Pa</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +636,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +811,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -804,6 +821,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1159,16 +1178,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="186.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="242.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1176,7 +1195,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1219,8 +1238,11 @@
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1300,7 +1322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1316,7 +1338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1381,11 +1403,11 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
+      <c r="B23" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1417,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1425,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1441,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1473,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1489,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1497,7 +1519,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1505,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1513,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1545,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,7 +1599,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,7 +1607,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1601,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1663,7 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1703,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1719,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,15 +1735,15 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>63</v>
+      <c r="A65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +1791,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1777,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,7 +1815,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +1823,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,7 +1863,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1849,15 +1871,15 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>71</v>
+      <c r="A82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1865,7 +1887,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,7 +1943,7 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +1959,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,7 +1967,7 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +1975,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +1999,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +2015,7 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,15 +2023,15 @@
         <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>79</v>
+      <c r="A101" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2047,7 @@
         <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2065,7 +2087,7 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,7 +2095,7 @@
         <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2103,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
